--- a/data/trans_bre/P16B06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B06-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B06-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,17%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,83; 16,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,14; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,34; 7,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,82; 20,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,14; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,36; 8,43</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,72%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,62; 19,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 10,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 17,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,81; 26,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 12,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 21,94</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,85%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 81,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,89; 30,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,92; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 435,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,08; 43,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,92; 0,0</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 14,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 6,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,74; 6,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 18,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 6,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,82; 6,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B06-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 16,47</t>
+          <t>-4,79; 16,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 0,0</t>
+          <t>-5,3; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 7,5</t>
+          <t>-5,73; 8,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 20,12</t>
+          <t>-4,81; 20,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 0,0</t>
+          <t>-5,3; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 8,43</t>
+          <t>-5,79; 9,39</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 19,56</t>
+          <t>-10,11; 19,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 10,93</t>
+          <t>-2,59; 10,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 17,74</t>
+          <t>-2,25; 17,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 26,21</t>
+          <t>-10,41; 26,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 12,21</t>
+          <t>-2,6; 11,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 21,94</t>
+          <t>-2,3; 22,18</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,38</t>
+          <t>0,0; 80,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 30,29</t>
+          <t>-38,75; 30,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 0,0</t>
+          <t>-33,76; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 435,76</t>
+          <t>0,0; 420,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,08; 43,44</t>
+          <t>-40,16; 43,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 0,0</t>
+          <t>-33,76; 0,0</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 14,98</t>
+          <t>-1,77; 14,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 6,4</t>
+          <t>-2,83; 6,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 6,36</t>
+          <t>-3,86; 6,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 18,49</t>
+          <t>-1,81; 17,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 6,99</t>
+          <t>-2,85; 6,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 6,96</t>
+          <t>-3,92; 7,25</t>
         </is>
       </c>
     </row>
